--- a/public/CZONEPriceData.xlsx
+++ b/public/CZONEPriceData.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CZONE USD Ver 5.5 - March 2025'!$A$3:$J$292</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3155,8 +3155,8 @@
   <sheetPr/>
   <dimension ref="A1:M290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
